--- a/TPS_Report.xlsx
+++ b/TPS_Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,27 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>actual time</t>
-  </si>
-  <si>
-    <t>code complete</t>
-  </si>
-  <si>
-    <t>code review</t>
-  </si>
-  <si>
     <t>Test Doubles</t>
   </si>
   <si>
@@ -63,9 +42,6 @@
     <t>2 hours</t>
   </si>
   <si>
-    <t>Test Inf and -Inf</t>
-  </si>
-  <si>
     <t>45 min</t>
   </si>
   <si>
@@ -76,6 +52,30 @@
   </si>
   <si>
     <t>Skylar</t>
+  </si>
+  <si>
+    <t>Test +Inf and -Inf</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Actual Time</t>
+  </si>
+  <si>
+    <t>Code Complete</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Risk (1-5)</t>
   </si>
 </sst>
 </file>
@@ -466,32 +466,36 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -505,94 +509,94 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TPS_Report.xlsx
+++ b/TPS_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,32 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
-  <si>
-    <t>Test Doubles</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>1 hour</t>
   </si>
   <si>
-    <t>30 min</t>
-  </si>
-  <si>
-    <t>Test Floats</t>
-  </si>
-  <si>
     <t>20 min</t>
   </si>
   <si>
-    <t>Test Nan</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>45 min</t>
-  </si>
-  <si>
     <t>Nick</t>
   </si>
   <si>
@@ -54,9 +36,6 @@
     <t>Skylar</t>
   </si>
   <si>
-    <t>Test +Inf and -Inf</t>
-  </si>
-  <si>
     <t>Assigned</t>
   </si>
   <si>
@@ -76,13 +55,37 @@
   </si>
   <si>
     <t>Risk (1-5)</t>
+  </si>
+  <si>
+    <t>C Coding Standard Final Paper</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>C Coding Standard Rough Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create GitHub Repository </t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>Setup Directories in Repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +96,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,16 +143,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,144 +492,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
         <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/TPS_Report.xlsx
+++ b/TPS_Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>1 hour</t>
   </si>
   <si>
-    <t>20 min</t>
-  </si>
-  <si>
     <t>Nick</t>
   </si>
   <si>
@@ -57,35 +54,35 @@
     <t>Risk (1-5)</t>
   </si>
   <si>
-    <t>C Coding Standard Final Paper</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>C Coding Standard Rough Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All </t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t xml:space="preserve">Create GitHub Repository </t>
-  </si>
-  <si>
-    <t>10 min</t>
-  </si>
-  <si>
-    <t>Setup Directories in Repository</t>
+    <t>Spikes: No Reals Test</t>
+  </si>
+  <si>
+    <t>Spikes: NaN and Inf Test</t>
+  </si>
+  <si>
+    <t>Spikes: One Real Test</t>
+  </si>
+  <si>
+    <t>Spikes: Square Root Test</t>
+  </si>
+  <si>
+    <t>MakeFile for each Spike</t>
+  </si>
+  <si>
+    <t>45 min.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +109,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,26 +146,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -506,25 +518,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -535,24 +547,24 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -561,67 +573,91 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/TPS_Report.xlsx
+++ b/TPS_Report.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -602,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="2">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>

--- a/TPS_Report.xlsx
+++ b/TPS_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>1 hour</t>
   </si>
@@ -57,25 +57,16 @@
     <t>NA</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Spikes: No Reals Test</t>
-  </si>
-  <si>
-    <t>Spikes: NaN and Inf Test</t>
-  </si>
-  <si>
-    <t>Spikes: One Real Test</t>
-  </si>
-  <si>
-    <t>Spikes: Square Root Test</t>
-  </si>
-  <si>
-    <t>MakeFile for each Spike</t>
+    <t>Mock.c Creation</t>
+  </si>
+  <si>
+    <t>Test script for discriminant test</t>
   </si>
   <si>
     <t>45 min.</t>
+  </si>
+  <si>
+    <t>Absolute/Relative Error Test Scripts</t>
   </si>
 </sst>
 </file>
@@ -146,7 +137,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -156,25 +147,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,7 +555,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -556,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="5">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
@@ -567,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -579,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -602,56 +616,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
